--- a/G-S_phase_retrieve/IntenistyNear.xlsx
+++ b/G-S_phase_retrieve/IntenistyNear.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Non-Hermitian Gauge Field\non-hermitian-gauge-field\G-S_phase_retrieve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478F4153-E4B4-4A76-B9D5-9D4EECEA69B6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9240FB08-F0BB-45D3-9095-EE520F564A81}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="8">
   <si>
     <t>&gt;</t>
   </si>
@@ -57,7 +57,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,8 +95,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,6 +147,17 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -137,10 +168,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -153,8 +185,67 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -278,6 +369,277 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>568036</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>338686</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>19851</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32471DA6-49FE-4A87-B605-DD15D40F0CC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10931236" y="8977746"/>
+          <a:ext cx="2818650" cy="2388978"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F9C70B1-4388-46C2-905F-D196C0D817BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10363200" y="14813280"/>
+          <a:ext cx="3322320" cy="2849880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD75B76-3C06-4DC7-B4C0-6CD38CB00B28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10363200" y="22860000"/>
+          <a:ext cx="3322320" cy="2849880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>251012</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>21662</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>4530</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E7BED0A-22EA-4C23-83D3-8783B550BB04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9395012" y="20349883"/>
+          <a:ext cx="2818650" cy="2425000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>435041</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>283285</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>169432</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEF305FC-5E67-4BF2-9797-AB0D92AB3924}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12017441" y="20322988"/>
+          <a:ext cx="2896244" cy="2437503"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -550,7 +912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AD47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="Q32" sqref="Q32:R41"/>
     </sheetView>
   </sheetViews>
@@ -3235,7 +3597,7 @@
   <dimension ref="B2:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3568,10 +3930,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDCB9C8-F043-4C72-9289-F6160CDB87A3}">
-  <dimension ref="B1:O48"/>
+  <dimension ref="B1:P145"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:O48"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130:O143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4340,16 +4702,16 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="E33" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="31" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4967,6 +5329,3044 @@
       </c>
       <c r="O48">
         <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="E50" s="7">
+        <v>0</v>
+      </c>
+      <c r="F50" s="8">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="G50" s="9">
+        <v>-2.0943951023932001</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B52" s="12"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B53" s="12"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13">
+        <v>0</v>
+      </c>
+      <c r="E53" s="13">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="F53" s="14">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="G53" s="13">
+        <v>0</v>
+      </c>
+      <c r="H53" s="13">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="I53" s="13">
+        <v>0</v>
+      </c>
+      <c r="J53" s="13">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="K53" s="14">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="L53" s="13">
+        <v>0</v>
+      </c>
+      <c r="M53" s="13">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B54" s="12"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="E54" s="13">
+        <v>0</v>
+      </c>
+      <c r="F54" s="13">
+        <v>0</v>
+      </c>
+      <c r="G54" s="13">
+        <v>0</v>
+      </c>
+      <c r="H54" s="13">
+        <v>0</v>
+      </c>
+      <c r="I54" s="13">
+        <v>0</v>
+      </c>
+      <c r="J54" s="13">
+        <v>0</v>
+      </c>
+      <c r="K54" s="13">
+        <v>0</v>
+      </c>
+      <c r="L54" s="13">
+        <v>0</v>
+      </c>
+      <c r="M54" s="13">
+        <v>0</v>
+      </c>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B55" s="12"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13">
+        <v>0</v>
+      </c>
+      <c r="E55" s="13">
+        <v>0</v>
+      </c>
+      <c r="F55" s="13">
+        <v>0</v>
+      </c>
+      <c r="G55" s="13">
+        <v>0</v>
+      </c>
+      <c r="H55" s="13">
+        <v>0</v>
+      </c>
+      <c r="I55" s="13">
+        <v>0</v>
+      </c>
+      <c r="J55" s="13">
+        <v>0</v>
+      </c>
+      <c r="K55" s="13">
+        <v>0</v>
+      </c>
+      <c r="L55" s="13">
+        <v>0</v>
+      </c>
+      <c r="M55" s="14">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B56" s="12"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="14">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="E56" s="13">
+        <v>0</v>
+      </c>
+      <c r="F56" s="13">
+        <v>0</v>
+      </c>
+      <c r="G56" s="13">
+        <v>0</v>
+      </c>
+      <c r="H56" s="13">
+        <v>0</v>
+      </c>
+      <c r="I56" s="13">
+        <v>0</v>
+      </c>
+      <c r="J56" s="13">
+        <v>0</v>
+      </c>
+      <c r="K56" s="13">
+        <v>0</v>
+      </c>
+      <c r="L56" s="13">
+        <v>0</v>
+      </c>
+      <c r="M56" s="13">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B57" s="12"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13">
+        <v>0</v>
+      </c>
+      <c r="E57" s="13">
+        <v>0</v>
+      </c>
+      <c r="F57" s="13">
+        <v>0</v>
+      </c>
+      <c r="G57" s="13">
+        <v>0</v>
+      </c>
+      <c r="H57" s="13">
+        <v>0</v>
+      </c>
+      <c r="I57" s="13">
+        <v>0</v>
+      </c>
+      <c r="J57" s="13">
+        <v>0</v>
+      </c>
+      <c r="K57" s="13">
+        <v>0</v>
+      </c>
+      <c r="L57" s="13">
+        <v>0</v>
+      </c>
+      <c r="M57" s="14">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B58" s="12"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13">
+        <v>0</v>
+      </c>
+      <c r="E58" s="13">
+        <v>0</v>
+      </c>
+      <c r="F58" s="13">
+        <v>0</v>
+      </c>
+      <c r="G58" s="13">
+        <v>0</v>
+      </c>
+      <c r="H58" s="13">
+        <v>0</v>
+      </c>
+      <c r="I58" s="13">
+        <v>0</v>
+      </c>
+      <c r="J58" s="13">
+        <v>0</v>
+      </c>
+      <c r="K58" s="13">
+        <v>0</v>
+      </c>
+      <c r="L58" s="13">
+        <v>0</v>
+      </c>
+      <c r="M58" s="14">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B59" s="12"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="14">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="E59" s="13">
+        <v>0</v>
+      </c>
+      <c r="F59" s="13">
+        <v>0</v>
+      </c>
+      <c r="G59" s="13">
+        <v>0</v>
+      </c>
+      <c r="H59" s="13">
+        <v>0</v>
+      </c>
+      <c r="I59" s="13">
+        <v>0</v>
+      </c>
+      <c r="J59" s="13">
+        <v>0</v>
+      </c>
+      <c r="K59" s="13">
+        <v>0</v>
+      </c>
+      <c r="L59" s="13">
+        <v>0</v>
+      </c>
+      <c r="M59" s="13">
+        <v>0</v>
+      </c>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B60" s="12"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="14">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="E60" s="13">
+        <v>0</v>
+      </c>
+      <c r="F60" s="13">
+        <v>0</v>
+      </c>
+      <c r="G60" s="13">
+        <v>0</v>
+      </c>
+      <c r="H60" s="13">
+        <v>0</v>
+      </c>
+      <c r="I60" s="13">
+        <v>0</v>
+      </c>
+      <c r="J60" s="13">
+        <v>0</v>
+      </c>
+      <c r="K60" s="13">
+        <v>0</v>
+      </c>
+      <c r="L60" s="13">
+        <v>0</v>
+      </c>
+      <c r="M60" s="13">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B61" s="12"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="15">
+        <v>0</v>
+      </c>
+      <c r="E61" s="13">
+        <v>0</v>
+      </c>
+      <c r="F61" s="13">
+        <v>0</v>
+      </c>
+      <c r="G61" s="13">
+        <v>0</v>
+      </c>
+      <c r="H61" s="13">
+        <v>0</v>
+      </c>
+      <c r="I61" s="13">
+        <v>0</v>
+      </c>
+      <c r="J61" s="13">
+        <v>0</v>
+      </c>
+      <c r="K61" s="13">
+        <v>0</v>
+      </c>
+      <c r="L61" s="13">
+        <v>0</v>
+      </c>
+      <c r="M61" s="14">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B62" s="12"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="E62" s="15">
+        <v>0</v>
+      </c>
+      <c r="F62" s="13">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="G62" s="14">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="H62" s="13">
+        <v>0</v>
+      </c>
+      <c r="I62" s="13">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="J62" s="13">
+        <v>0</v>
+      </c>
+      <c r="K62" s="13">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="L62" s="14">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="M62" s="13">
+        <v>0</v>
+      </c>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B63" s="12"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B64" s="12"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="13"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B67" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B68" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N68" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="O68" s="16"/>
+      <c r="P68" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B69" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="16"/>
+      <c r="D69" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G69" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H69" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I69" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J69" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K69" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="L69" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M69" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N69" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O69" s="16"/>
+      <c r="P69" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B70" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="L70" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M70" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="N70" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O70" s="16"/>
+      <c r="P70" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="L71" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M71" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="N71" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="O71" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="P71" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="N72" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="O72" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P72" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F73" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="N73" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="O73" s="16"/>
+      <c r="P73" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B74" s="16"/>
+      <c r="C74" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F74" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="N74" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O74" s="16"/>
+      <c r="P74" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B75" s="16"/>
+      <c r="C75" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="19"/>
+      <c r="M75" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
+      <c r="P75" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G76" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H76" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="L76" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M76" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+      <c r="P76" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B77" s="16"/>
+      <c r="C77" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F77" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G77" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H77" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="L77" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="M77" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="N77" s="16"/>
+      <c r="O77" s="16"/>
+      <c r="P77" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B78" s="16"/>
+      <c r="C78" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F78" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H78" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I78" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J78" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K78" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="L78" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M78" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="N78" s="16"/>
+      <c r="O78" s="16"/>
+      <c r="P78" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B79" s="16"/>
+      <c r="C79" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="16"/>
+      <c r="F79" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G79" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H79" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I79" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J79" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K79" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="L79" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M79" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="N79" s="16"/>
+      <c r="O79" s="16"/>
+      <c r="P79" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G80" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H80" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I80" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J80" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="K80" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="L80" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="N80" s="21"/>
+      <c r="O80" s="21"/>
+      <c r="P80" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B82" s="16">
+        <v>1</v>
+      </c>
+      <c r="C82" s="16">
+        <v>1</v>
+      </c>
+      <c r="D82" s="16">
+        <v>2</v>
+      </c>
+      <c r="E82" s="16">
+        <v>0</v>
+      </c>
+      <c r="F82" s="16">
+        <v>0</v>
+      </c>
+      <c r="G82" s="16">
+        <v>0</v>
+      </c>
+      <c r="H82" s="17">
+        <v>1</v>
+      </c>
+      <c r="I82" s="16">
+        <v>2</v>
+      </c>
+      <c r="J82" s="16">
+        <v>0</v>
+      </c>
+      <c r="K82" s="16">
+        <v>0</v>
+      </c>
+      <c r="L82" s="16">
+        <v>0</v>
+      </c>
+      <c r="M82" s="16">
+        <v>0</v>
+      </c>
+      <c r="N82" s="16">
+        <v>0</v>
+      </c>
+      <c r="O82" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B83" s="16">
+        <v>3</v>
+      </c>
+      <c r="C83" s="16">
+        <v>0</v>
+      </c>
+      <c r="D83" s="16">
+        <v>2</v>
+      </c>
+      <c r="E83" s="16">
+        <v>0</v>
+      </c>
+      <c r="F83" s="16">
+        <v>0</v>
+      </c>
+      <c r="G83" s="16">
+        <v>0</v>
+      </c>
+      <c r="H83" s="16">
+        <v>3</v>
+      </c>
+      <c r="I83" s="16">
+        <v>2</v>
+      </c>
+      <c r="J83" s="16">
+        <v>0</v>
+      </c>
+      <c r="K83" s="16">
+        <v>0</v>
+      </c>
+      <c r="L83" s="16">
+        <v>0</v>
+      </c>
+      <c r="M83" s="16">
+        <v>1</v>
+      </c>
+      <c r="N83" s="17">
+        <v>2</v>
+      </c>
+      <c r="O83" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B84" s="16">
+        <v>3</v>
+      </c>
+      <c r="C84" s="16">
+        <v>0</v>
+      </c>
+      <c r="D84" s="19">
+        <v>1</v>
+      </c>
+      <c r="E84" s="19">
+        <v>1</v>
+      </c>
+      <c r="F84" s="19">
+        <v>1</v>
+      </c>
+      <c r="G84" s="19">
+        <v>1</v>
+      </c>
+      <c r="H84" s="19">
+        <v>3</v>
+      </c>
+      <c r="I84" s="19">
+        <v>1</v>
+      </c>
+      <c r="J84" s="19">
+        <v>1</v>
+      </c>
+      <c r="K84" s="19">
+        <v>1</v>
+      </c>
+      <c r="L84" s="19">
+        <v>1</v>
+      </c>
+      <c r="M84" s="19">
+        <v>3</v>
+      </c>
+      <c r="N84" s="16">
+        <v>2</v>
+      </c>
+      <c r="O84" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B85" s="16">
+        <v>3</v>
+      </c>
+      <c r="C85" s="16">
+        <v>4</v>
+      </c>
+      <c r="D85" s="19">
+        <v>4</v>
+      </c>
+      <c r="E85" s="19">
+        <v>0</v>
+      </c>
+      <c r="F85" s="19">
+        <v>0</v>
+      </c>
+      <c r="G85" s="19">
+        <v>0</v>
+      </c>
+      <c r="H85" s="19">
+        <v>0</v>
+      </c>
+      <c r="I85" s="19">
+        <v>0</v>
+      </c>
+      <c r="J85" s="19">
+        <v>0</v>
+      </c>
+      <c r="K85" s="19">
+        <v>2</v>
+      </c>
+      <c r="L85" s="19">
+        <v>4</v>
+      </c>
+      <c r="M85" s="19">
+        <v>4</v>
+      </c>
+      <c r="N85" s="16">
+        <v>4</v>
+      </c>
+      <c r="O85" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B86" s="16">
+        <v>0</v>
+      </c>
+      <c r="C86" s="16">
+        <v>0</v>
+      </c>
+      <c r="D86" s="19">
+        <v>3</v>
+      </c>
+      <c r="E86" s="19">
+        <v>4</v>
+      </c>
+      <c r="F86" s="20">
+        <v>4</v>
+      </c>
+      <c r="G86" s="19">
+        <v>0</v>
+      </c>
+      <c r="H86" s="19">
+        <v>0</v>
+      </c>
+      <c r="I86" s="19">
+        <v>0</v>
+      </c>
+      <c r="J86" s="19">
+        <v>0</v>
+      </c>
+      <c r="K86" s="19">
+        <v>1</v>
+      </c>
+      <c r="L86" s="19">
+        <v>1</v>
+      </c>
+      <c r="M86" s="19">
+        <v>1</v>
+      </c>
+      <c r="N86" s="17">
+        <v>1</v>
+      </c>
+      <c r="O86" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B87" s="16">
+        <v>0</v>
+      </c>
+      <c r="C87" s="16">
+        <v>0</v>
+      </c>
+      <c r="D87" s="20">
+        <v>1</v>
+      </c>
+      <c r="E87" s="19">
+        <v>1</v>
+      </c>
+      <c r="F87" s="19">
+        <v>3</v>
+      </c>
+      <c r="G87" s="19">
+        <v>0</v>
+      </c>
+      <c r="H87" s="19">
+        <v>0</v>
+      </c>
+      <c r="I87" s="19">
+        <v>0</v>
+      </c>
+      <c r="J87" s="19">
+        <v>0</v>
+      </c>
+      <c r="K87" s="19">
+        <v>0</v>
+      </c>
+      <c r="L87" s="19">
+        <v>0</v>
+      </c>
+      <c r="M87" s="19">
+        <v>2</v>
+      </c>
+      <c r="N87" s="17">
+        <v>4</v>
+      </c>
+      <c r="O87" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B88" s="16">
+        <v>0</v>
+      </c>
+      <c r="C88" s="16">
+        <v>0</v>
+      </c>
+      <c r="D88" s="19">
+        <v>3</v>
+      </c>
+      <c r="E88" s="19">
+        <v>4</v>
+      </c>
+      <c r="F88" s="20">
+        <v>4</v>
+      </c>
+      <c r="G88" s="19">
+        <v>0</v>
+      </c>
+      <c r="H88" s="19">
+        <v>0</v>
+      </c>
+      <c r="I88" s="19">
+        <v>0</v>
+      </c>
+      <c r="J88" s="19">
+        <v>0</v>
+      </c>
+      <c r="K88" s="19">
+        <v>0</v>
+      </c>
+      <c r="L88" s="19">
+        <v>0</v>
+      </c>
+      <c r="M88" s="19">
+        <v>1</v>
+      </c>
+      <c r="N88" s="17">
+        <v>2</v>
+      </c>
+      <c r="O88" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B89" s="16">
+        <v>0</v>
+      </c>
+      <c r="C89" s="16">
+        <v>1</v>
+      </c>
+      <c r="D89" s="20">
+        <v>1</v>
+      </c>
+      <c r="E89" s="19">
+        <v>1</v>
+      </c>
+      <c r="F89" s="19">
+        <v>3</v>
+      </c>
+      <c r="G89" s="19">
+        <v>0</v>
+      </c>
+      <c r="H89" s="19">
+        <v>0</v>
+      </c>
+      <c r="I89" s="19">
+        <v>0</v>
+      </c>
+      <c r="J89" s="19">
+        <v>0</v>
+      </c>
+      <c r="K89" s="19">
+        <v>0</v>
+      </c>
+      <c r="L89" s="19">
+        <v>0</v>
+      </c>
+      <c r="M89" s="19">
+        <v>2</v>
+      </c>
+      <c r="N89" s="16">
+        <v>4</v>
+      </c>
+      <c r="O89" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B90" s="16">
+        <v>0</v>
+      </c>
+      <c r="C90" s="16">
+        <v>3</v>
+      </c>
+      <c r="D90" s="20">
+        <v>4</v>
+      </c>
+      <c r="E90" s="19">
+        <v>0</v>
+      </c>
+      <c r="F90" s="19">
+        <v>0</v>
+      </c>
+      <c r="G90" s="19">
+        <v>0</v>
+      </c>
+      <c r="H90" s="19">
+        <v>0</v>
+      </c>
+      <c r="I90" s="19">
+        <v>0</v>
+      </c>
+      <c r="J90" s="19">
+        <v>0</v>
+      </c>
+      <c r="K90" s="19">
+        <v>0</v>
+      </c>
+      <c r="L90" s="19">
+        <v>0</v>
+      </c>
+      <c r="M90" s="20">
+        <v>2</v>
+      </c>
+      <c r="N90" s="16">
+        <v>0</v>
+      </c>
+      <c r="O90" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B91" s="16">
+        <v>0</v>
+      </c>
+      <c r="C91" s="16">
+        <v>0</v>
+      </c>
+      <c r="D91" s="19">
+        <v>3</v>
+      </c>
+      <c r="E91" s="19">
+        <v>2</v>
+      </c>
+      <c r="F91" s="20">
+        <v>4</v>
+      </c>
+      <c r="G91" s="20">
+        <v>2</v>
+      </c>
+      <c r="H91" s="19">
+        <v>4</v>
+      </c>
+      <c r="I91" s="19">
+        <v>0</v>
+      </c>
+      <c r="J91" s="19">
+        <v>0</v>
+      </c>
+      <c r="K91" s="19">
+        <v>2</v>
+      </c>
+      <c r="L91" s="19">
+        <v>4</v>
+      </c>
+      <c r="M91" s="19">
+        <v>2</v>
+      </c>
+      <c r="N91" s="16">
+        <v>0</v>
+      </c>
+      <c r="O91" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B92" s="16">
+        <v>0</v>
+      </c>
+      <c r="C92" s="16">
+        <v>1</v>
+      </c>
+      <c r="D92" s="20">
+        <v>3</v>
+      </c>
+      <c r="E92" s="19">
+        <v>2</v>
+      </c>
+      <c r="F92" s="19">
+        <v>3</v>
+      </c>
+      <c r="G92" s="19">
+        <v>2</v>
+      </c>
+      <c r="H92" s="19">
+        <v>3</v>
+      </c>
+      <c r="I92" s="19">
+        <v>0</v>
+      </c>
+      <c r="J92" s="19">
+        <v>0</v>
+      </c>
+      <c r="K92" s="20">
+        <v>2</v>
+      </c>
+      <c r="L92" s="20">
+        <v>3</v>
+      </c>
+      <c r="M92" s="19">
+        <v>2</v>
+      </c>
+      <c r="N92" s="16">
+        <v>0</v>
+      </c>
+      <c r="O92" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B93" s="16">
+        <v>0</v>
+      </c>
+      <c r="C93" s="16">
+        <v>3</v>
+      </c>
+      <c r="D93" s="19">
+        <v>2</v>
+      </c>
+      <c r="E93" s="24">
+        <v>4</v>
+      </c>
+      <c r="F93" s="19">
+        <v>3</v>
+      </c>
+      <c r="G93" s="19">
+        <v>2</v>
+      </c>
+      <c r="H93" s="20">
+        <v>3</v>
+      </c>
+      <c r="I93" s="19">
+        <v>2</v>
+      </c>
+      <c r="J93" s="20">
+        <v>4</v>
+      </c>
+      <c r="K93" s="19">
+        <v>2</v>
+      </c>
+      <c r="L93" s="19">
+        <v>3</v>
+      </c>
+      <c r="M93" s="20">
+        <v>2</v>
+      </c>
+      <c r="N93" s="16">
+        <v>0</v>
+      </c>
+      <c r="O93" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B94" s="16">
+        <v>0</v>
+      </c>
+      <c r="C94" s="17">
+        <v>3</v>
+      </c>
+      <c r="D94" s="16">
+        <v>4</v>
+      </c>
+      <c r="E94" s="16">
+        <v>0</v>
+      </c>
+      <c r="F94" s="17">
+        <v>3</v>
+      </c>
+      <c r="G94" s="17">
+        <v>2</v>
+      </c>
+      <c r="H94" s="16">
+        <v>3</v>
+      </c>
+      <c r="I94" s="16">
+        <v>2</v>
+      </c>
+      <c r="J94" s="16">
+        <v>3</v>
+      </c>
+      <c r="K94" s="16">
+        <v>2</v>
+      </c>
+      <c r="L94" s="16">
+        <v>3</v>
+      </c>
+      <c r="M94" s="16">
+        <v>2</v>
+      </c>
+      <c r="N94" s="16">
+        <v>0</v>
+      </c>
+      <c r="O94" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B95" s="21">
+        <v>0</v>
+      </c>
+      <c r="C95" s="21">
+        <v>0</v>
+      </c>
+      <c r="D95" s="21">
+        <v>0</v>
+      </c>
+      <c r="E95" s="21">
+        <v>0</v>
+      </c>
+      <c r="F95" s="21">
+        <v>3</v>
+      </c>
+      <c r="G95" s="21">
+        <v>4</v>
+      </c>
+      <c r="H95" s="21">
+        <v>3</v>
+      </c>
+      <c r="I95" s="22">
+        <v>4</v>
+      </c>
+      <c r="J95" s="21">
+        <v>3</v>
+      </c>
+      <c r="K95" s="22">
+        <v>4</v>
+      </c>
+      <c r="L95" s="22">
+        <v>3</v>
+      </c>
+      <c r="M95" s="21">
+        <v>4</v>
+      </c>
+      <c r="N95" s="21">
+        <v>0</v>
+      </c>
+      <c r="O95" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G98" s="9">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="H98" s="7">
+        <v>0</v>
+      </c>
+      <c r="I98" s="8">
+        <v>2.0943951023932001</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B100" s="12"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="13"/>
+      <c r="K100" s="13"/>
+      <c r="L100" s="13"/>
+      <c r="M100" s="13"/>
+      <c r="N100" s="13"/>
+      <c r="O100" s="13"/>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B101" s="12"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13"/>
+      <c r="N101" s="13"/>
+      <c r="O101" s="13"/>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B102" s="12"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="E102" s="13">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="F102" s="13">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="G102" s="13">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="H102" s="13">
+        <v>0</v>
+      </c>
+      <c r="I102" s="13">
+        <v>0</v>
+      </c>
+      <c r="J102" s="13">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="K102" s="13">
+        <v>0</v>
+      </c>
+      <c r="L102" s="13">
+        <v>0</v>
+      </c>
+      <c r="M102" s="13">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="N102" s="13"/>
+      <c r="O102" s="13"/>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B103" s="12"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="E103" s="13">
+        <v>0</v>
+      </c>
+      <c r="F103" s="13">
+        <v>0</v>
+      </c>
+      <c r="G103" s="13">
+        <v>0</v>
+      </c>
+      <c r="H103" s="13">
+        <v>0</v>
+      </c>
+      <c r="I103" s="13">
+        <v>0</v>
+      </c>
+      <c r="J103" s="13">
+        <v>0</v>
+      </c>
+      <c r="K103" s="13">
+        <v>0</v>
+      </c>
+      <c r="L103" s="13">
+        <v>0</v>
+      </c>
+      <c r="M103" s="13">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="N103" s="13"/>
+      <c r="O103" s="13"/>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B104" s="12"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="E104" s="13">
+        <v>0</v>
+      </c>
+      <c r="F104" s="13">
+        <v>0</v>
+      </c>
+      <c r="G104" s="13">
+        <v>0</v>
+      </c>
+      <c r="H104" s="13">
+        <v>0</v>
+      </c>
+      <c r="I104" s="13">
+        <v>0</v>
+      </c>
+      <c r="J104" s="13">
+        <v>0</v>
+      </c>
+      <c r="K104" s="13">
+        <v>0</v>
+      </c>
+      <c r="L104" s="13">
+        <v>0</v>
+      </c>
+      <c r="M104" s="13">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="N104" s="13"/>
+      <c r="O104" s="13"/>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B105" s="12"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="E105" s="13">
+        <v>0</v>
+      </c>
+      <c r="F105" s="13">
+        <v>0</v>
+      </c>
+      <c r="G105" s="13">
+        <v>0</v>
+      </c>
+      <c r="H105" s="13">
+        <v>0</v>
+      </c>
+      <c r="I105" s="13">
+        <v>0</v>
+      </c>
+      <c r="J105" s="13">
+        <v>0</v>
+      </c>
+      <c r="K105" s="13">
+        <v>0</v>
+      </c>
+      <c r="L105" s="13">
+        <v>0</v>
+      </c>
+      <c r="M105" s="13">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="N105" s="13"/>
+      <c r="O105" s="13"/>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B106" s="12"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="E106" s="13">
+        <v>0</v>
+      </c>
+      <c r="F106" s="13">
+        <v>0</v>
+      </c>
+      <c r="G106" s="13">
+        <v>0</v>
+      </c>
+      <c r="H106" s="13">
+        <v>0</v>
+      </c>
+      <c r="I106" s="13">
+        <v>0</v>
+      </c>
+      <c r="J106" s="13">
+        <v>0</v>
+      </c>
+      <c r="K106" s="13">
+        <v>0</v>
+      </c>
+      <c r="L106" s="13">
+        <v>0</v>
+      </c>
+      <c r="M106" s="13">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="N106" s="13"/>
+      <c r="O106" s="13"/>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B107" s="12"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="E107" s="13">
+        <v>0</v>
+      </c>
+      <c r="F107" s="13">
+        <v>0</v>
+      </c>
+      <c r="G107" s="13">
+        <v>0</v>
+      </c>
+      <c r="H107" s="13">
+        <v>0</v>
+      </c>
+      <c r="I107" s="13">
+        <v>0</v>
+      </c>
+      <c r="J107" s="13">
+        <v>0</v>
+      </c>
+      <c r="K107" s="13">
+        <v>0</v>
+      </c>
+      <c r="L107" s="13">
+        <v>0</v>
+      </c>
+      <c r="M107" s="13">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="N107" s="13"/>
+      <c r="O107" s="13"/>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B108" s="12"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="E108" s="13">
+        <v>0</v>
+      </c>
+      <c r="F108" s="13">
+        <v>0</v>
+      </c>
+      <c r="G108" s="13">
+        <v>0</v>
+      </c>
+      <c r="H108" s="13">
+        <v>0</v>
+      </c>
+      <c r="I108" s="13">
+        <v>0</v>
+      </c>
+      <c r="J108" s="13">
+        <v>0</v>
+      </c>
+      <c r="K108" s="13">
+        <v>0</v>
+      </c>
+      <c r="L108" s="13">
+        <v>0</v>
+      </c>
+      <c r="M108" s="13">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="N108" s="13"/>
+      <c r="O108" s="13"/>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B109" s="12"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="E109" s="13">
+        <v>0</v>
+      </c>
+      <c r="F109" s="13">
+        <v>0</v>
+      </c>
+      <c r="G109" s="13">
+        <v>0</v>
+      </c>
+      <c r="H109" s="13">
+        <v>0</v>
+      </c>
+      <c r="I109" s="13">
+        <v>0</v>
+      </c>
+      <c r="J109" s="13">
+        <v>0</v>
+      </c>
+      <c r="K109" s="13">
+        <v>0</v>
+      </c>
+      <c r="L109" s="13">
+        <v>0</v>
+      </c>
+      <c r="M109" s="13">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="N109" s="13"/>
+      <c r="O109" s="13"/>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B110" s="12"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="E110" s="13">
+        <v>0</v>
+      </c>
+      <c r="F110" s="13">
+        <v>0</v>
+      </c>
+      <c r="G110" s="13">
+        <v>0</v>
+      </c>
+      <c r="H110" s="13">
+        <v>0</v>
+      </c>
+      <c r="I110" s="13">
+        <v>0</v>
+      </c>
+      <c r="J110" s="13">
+        <v>0</v>
+      </c>
+      <c r="K110" s="13">
+        <v>0</v>
+      </c>
+      <c r="L110" s="13">
+        <v>0</v>
+      </c>
+      <c r="M110" s="13">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="N110" s="13"/>
+      <c r="O110" s="13"/>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B111" s="12"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="E111" s="13">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="F111" s="13">
+        <v>0</v>
+      </c>
+      <c r="G111" s="13">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="H111" s="13">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="I111" s="13">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="J111" s="13">
+        <v>0</v>
+      </c>
+      <c r="K111" s="13">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="L111" s="13">
+        <v>2.0943951023932001</v>
+      </c>
+      <c r="M111" s="13">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="N111" s="13"/>
+      <c r="O111" s="13"/>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B112" s="12"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="13"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="13"/>
+      <c r="K112" s="13"/>
+      <c r="L112" s="13"/>
+      <c r="M112" s="13"/>
+      <c r="N112" s="13"/>
+      <c r="O112" s="13"/>
+    </row>
+    <row r="113" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B113" s="12"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="13"/>
+      <c r="I113" s="13"/>
+      <c r="J113" s="13"/>
+      <c r="K113" s="13"/>
+      <c r="L113" s="13"/>
+      <c r="M113" s="13"/>
+      <c r="N113" s="13"/>
+      <c r="O113" s="13"/>
+    </row>
+    <row r="115" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B115" s="16"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F115" s="16"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="16"/>
+      <c r="I115" s="16"/>
+      <c r="J115" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="K115" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L115" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M115" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N115" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O115" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B116" s="16"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F116" s="16"/>
+      <c r="G116" s="16"/>
+      <c r="H116" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I116" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J116" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K116" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L116" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M116" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="N116" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O116" s="29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B117" s="16"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E117" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F117" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G117" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H117" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I117" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J117" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K117" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="L117" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M117" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="N117" s="16"/>
+      <c r="O117" s="25"/>
+    </row>
+    <row r="118" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B118" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E118" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F118" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G118" s="19"/>
+      <c r="H118" s="19"/>
+      <c r="I118" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J118" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K118" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="L118" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M118" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="N118" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="O118" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B119" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E119" s="19"/>
+      <c r="F119" s="19"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="19"/>
+      <c r="I119" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J119" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K119" s="19"/>
+      <c r="L119" s="19"/>
+      <c r="M119" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="N119" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O119" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B120" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D120" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E120" s="19"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="19"/>
+      <c r="I120" s="19"/>
+      <c r="J120" s="19"/>
+      <c r="K120" s="19"/>
+      <c r="L120" s="19"/>
+      <c r="M120" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="N120" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O120" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B121" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="19"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="19"/>
+      <c r="K121" s="19"/>
+      <c r="L121" s="19"/>
+      <c r="M121" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="N121" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O121" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B122" s="16"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F122" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G122" s="19"/>
+      <c r="H122" s="19"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="19"/>
+      <c r="K122" s="19"/>
+      <c r="L122" s="19"/>
+      <c r="M122" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="N122" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O122" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B123" s="16"/>
+      <c r="C123" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D123" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E123" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F123" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G123" s="19"/>
+      <c r="H123" s="19"/>
+      <c r="I123" s="19"/>
+      <c r="J123" s="19"/>
+      <c r="K123" s="19"/>
+      <c r="L123" s="19"/>
+      <c r="M123" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="N123" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O123" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B124" s="16"/>
+      <c r="C124" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E124" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F124" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G124" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H124" s="19"/>
+      <c r="I124" s="19"/>
+      <c r="J124" s="19"/>
+      <c r="K124" s="19"/>
+      <c r="L124" s="19"/>
+      <c r="M124" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="N124" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O124" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B125" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D125" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E125" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F125" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G125" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H125" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I125" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J125" s="19"/>
+      <c r="K125" s="19"/>
+      <c r="L125" s="19"/>
+      <c r="M125" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="N125" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O125" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B126" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E126" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F126" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G126" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H126" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I126" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J126" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K126" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L126" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="M126" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="N126" s="16"/>
+      <c r="O126" s="16"/>
+    </row>
+    <row r="127" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B127" s="16"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F127" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G127" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H127" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I127" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J127" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K127" s="16"/>
+      <c r="L127" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M127" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="N127" s="16"/>
+      <c r="O127" s="16"/>
+    </row>
+    <row r="128" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B128" s="21"/>
+      <c r="C128" s="21"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F128" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G128" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H128" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="I128" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J128" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="K128" s="21"/>
+      <c r="L128" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="M128" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="N128" s="21"/>
+      <c r="O128" s="21"/>
+    </row>
+    <row r="130" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B130" s="16">
+        <v>0</v>
+      </c>
+      <c r="C130" s="16">
+        <v>0</v>
+      </c>
+      <c r="D130" s="16">
+        <v>1</v>
+      </c>
+      <c r="E130" s="16">
+        <v>2</v>
+      </c>
+      <c r="F130" s="16">
+        <v>0</v>
+      </c>
+      <c r="G130" s="16">
+        <v>0</v>
+      </c>
+      <c r="H130" s="16">
+        <v>0</v>
+      </c>
+      <c r="I130" s="16">
+        <v>0</v>
+      </c>
+      <c r="J130" s="16">
+        <v>1</v>
+      </c>
+      <c r="K130" s="16">
+        <v>1</v>
+      </c>
+      <c r="L130" s="16">
+        <v>1</v>
+      </c>
+      <c r="M130" s="16">
+        <v>1</v>
+      </c>
+      <c r="N130" s="16">
+        <v>1</v>
+      </c>
+      <c r="O130" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B131" s="16">
+        <v>0</v>
+      </c>
+      <c r="C131" s="16">
+        <v>0</v>
+      </c>
+      <c r="D131" s="16">
+        <v>3</v>
+      </c>
+      <c r="E131" s="16">
+        <v>2</v>
+      </c>
+      <c r="F131" s="16">
+        <v>0</v>
+      </c>
+      <c r="G131" s="16">
+        <v>0</v>
+      </c>
+      <c r="H131" s="16">
+        <v>1</v>
+      </c>
+      <c r="I131" s="16">
+        <v>2</v>
+      </c>
+      <c r="J131" s="16">
+        <v>3</v>
+      </c>
+      <c r="K131" s="16">
+        <v>4</v>
+      </c>
+      <c r="L131" s="16">
+        <v>4</v>
+      </c>
+      <c r="M131" s="16">
+        <v>2</v>
+      </c>
+      <c r="N131" s="16">
+        <v>4</v>
+      </c>
+      <c r="O131" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B132" s="16">
+        <v>0</v>
+      </c>
+      <c r="C132" s="16">
+        <v>0</v>
+      </c>
+      <c r="D132" s="19">
+        <v>3</v>
+      </c>
+      <c r="E132" s="26">
+        <v>2</v>
+      </c>
+      <c r="F132" s="26">
+        <v>1</v>
+      </c>
+      <c r="G132" s="19">
+        <v>1</v>
+      </c>
+      <c r="H132" s="19">
+        <v>3</v>
+      </c>
+      <c r="I132" s="19">
+        <v>2</v>
+      </c>
+      <c r="J132" s="19">
+        <v>1</v>
+      </c>
+      <c r="K132" s="19">
+        <v>2</v>
+      </c>
+      <c r="L132" s="19">
+        <v>3</v>
+      </c>
+      <c r="M132" s="26">
+        <v>2</v>
+      </c>
+      <c r="N132" s="16">
+        <v>0</v>
+      </c>
+      <c r="O132" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B133" s="16">
+        <v>1</v>
+      </c>
+      <c r="C133" s="16">
+        <v>1</v>
+      </c>
+      <c r="D133" s="26">
+        <v>3</v>
+      </c>
+      <c r="E133" s="19">
+        <v>1</v>
+      </c>
+      <c r="F133" s="19">
+        <v>3</v>
+      </c>
+      <c r="G133" s="19">
+        <v>0</v>
+      </c>
+      <c r="H133" s="19">
+        <v>0</v>
+      </c>
+      <c r="I133" s="19">
+        <v>2</v>
+      </c>
+      <c r="J133" s="19">
+        <v>3</v>
+      </c>
+      <c r="K133" s="19">
+        <v>1</v>
+      </c>
+      <c r="L133" s="19">
+        <v>3</v>
+      </c>
+      <c r="M133" s="27">
+        <v>1</v>
+      </c>
+      <c r="N133" s="28">
+        <v>1</v>
+      </c>
+      <c r="O133" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B134" s="16">
+        <v>3</v>
+      </c>
+      <c r="C134" s="16">
+        <v>4</v>
+      </c>
+      <c r="D134" s="19">
+        <v>4</v>
+      </c>
+      <c r="E134" s="19">
+        <v>0</v>
+      </c>
+      <c r="F134" s="19">
+        <v>0</v>
+      </c>
+      <c r="G134" s="19">
+        <v>0</v>
+      </c>
+      <c r="H134" s="19">
+        <v>0</v>
+      </c>
+      <c r="I134" s="19">
+        <v>1</v>
+      </c>
+      <c r="J134" s="19">
+        <v>3</v>
+      </c>
+      <c r="K134" s="19">
+        <v>0</v>
+      </c>
+      <c r="L134" s="19">
+        <v>0</v>
+      </c>
+      <c r="M134" s="26">
+        <v>2</v>
+      </c>
+      <c r="N134" s="16">
+        <v>4</v>
+      </c>
+      <c r="O134" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B135" s="16">
+        <v>1</v>
+      </c>
+      <c r="C135" s="16">
+        <v>1</v>
+      </c>
+      <c r="D135" s="26">
+        <v>3</v>
+      </c>
+      <c r="E135" s="19">
+        <v>0</v>
+      </c>
+      <c r="F135" s="19">
+        <v>0</v>
+      </c>
+      <c r="G135" s="19">
+        <v>0</v>
+      </c>
+      <c r="H135" s="19">
+        <v>0</v>
+      </c>
+      <c r="I135" s="19">
+        <v>0</v>
+      </c>
+      <c r="J135" s="19">
+        <v>0</v>
+      </c>
+      <c r="K135" s="19">
+        <v>0</v>
+      </c>
+      <c r="L135" s="19">
+        <v>0</v>
+      </c>
+      <c r="M135" s="27">
+        <v>1</v>
+      </c>
+      <c r="N135" s="16">
+        <v>1</v>
+      </c>
+      <c r="O135" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B136" s="16">
+        <v>3</v>
+      </c>
+      <c r="C136" s="16">
+        <v>4</v>
+      </c>
+      <c r="D136" s="19">
+        <v>4</v>
+      </c>
+      <c r="E136" s="19">
+        <v>0</v>
+      </c>
+      <c r="F136" s="19">
+        <v>0</v>
+      </c>
+      <c r="G136" s="19">
+        <v>0</v>
+      </c>
+      <c r="H136" s="19">
+        <v>0</v>
+      </c>
+      <c r="I136" s="19">
+        <v>0</v>
+      </c>
+      <c r="J136" s="19">
+        <v>0</v>
+      </c>
+      <c r="K136" s="19">
+        <v>0</v>
+      </c>
+      <c r="L136" s="19">
+        <v>0</v>
+      </c>
+      <c r="M136" s="26">
+        <v>2</v>
+      </c>
+      <c r="N136" s="16">
+        <v>4</v>
+      </c>
+      <c r="O136" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B137" s="16">
+        <v>0</v>
+      </c>
+      <c r="C137" s="16">
+        <v>0</v>
+      </c>
+      <c r="D137" s="26">
+        <v>3</v>
+      </c>
+      <c r="E137" s="19">
+        <v>4</v>
+      </c>
+      <c r="F137" s="19">
+        <v>4</v>
+      </c>
+      <c r="G137" s="19">
+        <v>0</v>
+      </c>
+      <c r="H137" s="19">
+        <v>0</v>
+      </c>
+      <c r="I137" s="19">
+        <v>0</v>
+      </c>
+      <c r="J137" s="19">
+        <v>0</v>
+      </c>
+      <c r="K137" s="19">
+        <v>0</v>
+      </c>
+      <c r="L137" s="19">
+        <v>0</v>
+      </c>
+      <c r="M137" s="19">
+        <v>1</v>
+      </c>
+      <c r="N137" s="16">
+        <v>1</v>
+      </c>
+      <c r="O137" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B138" s="16">
+        <v>0</v>
+      </c>
+      <c r="C138" s="16">
+        <v>1</v>
+      </c>
+      <c r="D138" s="19">
+        <v>1</v>
+      </c>
+      <c r="E138" s="19">
+        <v>1</v>
+      </c>
+      <c r="F138" s="19">
+        <v>3</v>
+      </c>
+      <c r="G138" s="19">
+        <v>0</v>
+      </c>
+      <c r="H138" s="19">
+        <v>0</v>
+      </c>
+      <c r="I138" s="19">
+        <v>0</v>
+      </c>
+      <c r="J138" s="19">
+        <v>0</v>
+      </c>
+      <c r="K138" s="19">
+        <v>0</v>
+      </c>
+      <c r="L138" s="19">
+        <v>0</v>
+      </c>
+      <c r="M138" s="26">
+        <v>2</v>
+      </c>
+      <c r="N138" s="16">
+        <v>4</v>
+      </c>
+      <c r="O138" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B139" s="16">
+        <v>0</v>
+      </c>
+      <c r="C139" s="16">
+        <v>3</v>
+      </c>
+      <c r="D139" s="30">
+        <v>4</v>
+      </c>
+      <c r="E139" s="19">
+        <v>4</v>
+      </c>
+      <c r="F139" s="19">
+        <v>2</v>
+      </c>
+      <c r="G139" s="19">
+        <v>4</v>
+      </c>
+      <c r="H139" s="19">
+        <v>0</v>
+      </c>
+      <c r="I139" s="19">
+        <v>0</v>
+      </c>
+      <c r="J139" s="19">
+        <v>0</v>
+      </c>
+      <c r="K139" s="19">
+        <v>0</v>
+      </c>
+      <c r="L139" s="19">
+        <v>0</v>
+      </c>
+      <c r="M139" s="19">
+        <v>1</v>
+      </c>
+      <c r="N139" s="16">
+        <v>1</v>
+      </c>
+      <c r="O139" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B140" s="16">
+        <v>1</v>
+      </c>
+      <c r="C140" s="16">
+        <v>1</v>
+      </c>
+      <c r="D140" s="19">
+        <v>1</v>
+      </c>
+      <c r="E140" s="19">
+        <v>3</v>
+      </c>
+      <c r="F140" s="19">
+        <v>2</v>
+      </c>
+      <c r="G140" s="19">
+        <v>3</v>
+      </c>
+      <c r="H140" s="19">
+        <v>2</v>
+      </c>
+      <c r="I140" s="19">
+        <v>4</v>
+      </c>
+      <c r="J140" s="19">
+        <v>0</v>
+      </c>
+      <c r="K140" s="19">
+        <v>0</v>
+      </c>
+      <c r="L140" s="19">
+        <v>0</v>
+      </c>
+      <c r="M140" s="26">
+        <v>2</v>
+      </c>
+      <c r="N140" s="16">
+        <v>4</v>
+      </c>
+      <c r="O140" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B141" s="16">
+        <v>3</v>
+      </c>
+      <c r="C141" s="16">
+        <v>4</v>
+      </c>
+      <c r="D141" s="30">
+        <v>4</v>
+      </c>
+      <c r="E141" s="23">
+        <v>4</v>
+      </c>
+      <c r="F141" s="19">
+        <v>2</v>
+      </c>
+      <c r="G141" s="26">
+        <v>3</v>
+      </c>
+      <c r="H141" s="19">
+        <v>2</v>
+      </c>
+      <c r="I141" s="19">
+        <v>3</v>
+      </c>
+      <c r="J141" s="19">
+        <v>2</v>
+      </c>
+      <c r="K141" s="19">
+        <v>4</v>
+      </c>
+      <c r="L141" s="26">
+        <v>4</v>
+      </c>
+      <c r="M141" s="19">
+        <v>2</v>
+      </c>
+      <c r="N141" s="16">
+        <v>0</v>
+      </c>
+      <c r="O141" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B142" s="16">
+        <v>0</v>
+      </c>
+      <c r="C142" s="16">
+        <v>0</v>
+      </c>
+      <c r="D142" s="16">
+        <v>0</v>
+      </c>
+      <c r="E142" s="16">
+        <v>3</v>
+      </c>
+      <c r="F142" s="29">
+        <v>2</v>
+      </c>
+      <c r="G142" s="16">
+        <v>3</v>
+      </c>
+      <c r="H142" s="16">
+        <v>2</v>
+      </c>
+      <c r="I142" s="16">
+        <v>3</v>
+      </c>
+      <c r="J142" s="16">
+        <v>2</v>
+      </c>
+      <c r="K142" s="16">
+        <v>0</v>
+      </c>
+      <c r="L142" s="16">
+        <v>3</v>
+      </c>
+      <c r="M142" s="16">
+        <v>2</v>
+      </c>
+      <c r="N142" s="16">
+        <v>0</v>
+      </c>
+      <c r="O142" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B143" s="21">
+        <v>0</v>
+      </c>
+      <c r="C143" s="21">
+        <v>0</v>
+      </c>
+      <c r="D143" s="21">
+        <v>0</v>
+      </c>
+      <c r="E143" s="21">
+        <v>3</v>
+      </c>
+      <c r="F143" s="21">
+        <v>4</v>
+      </c>
+      <c r="G143" s="21">
+        <v>3</v>
+      </c>
+      <c r="H143" s="21">
+        <v>4</v>
+      </c>
+      <c r="I143" s="21">
+        <v>3</v>
+      </c>
+      <c r="J143" s="21">
+        <v>4</v>
+      </c>
+      <c r="K143" s="21">
+        <v>0</v>
+      </c>
+      <c r="L143" s="21">
+        <v>3</v>
+      </c>
+      <c r="M143" s="21">
+        <v>4</v>
+      </c>
+      <c r="N143" s="21">
+        <v>0</v>
+      </c>
+      <c r="O143" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F145" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G145" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H145" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I145" s="31" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/G-S_phase_retrieve/IntenistyNear.xlsx
+++ b/G-S_phase_retrieve/IntenistyNear.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Non-Hermitian Gauge Field\non-hermitian-gauge-field\G-S_phase_retrieve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9240FB08-F0BB-45D3-9095-EE520F564A81}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E907924E-193F-435F-93B7-0D70AEC8B026}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="9">
   <si>
     <t>&gt;</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>&lt;4</t>
+  </si>
+  <si>
+    <t>Near Field</t>
   </si>
 </sst>
 </file>
@@ -172,7 +175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -243,6 +246,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -910,19 +916,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AD47"/>
+  <dimension ref="B1:AJ114"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32:R41"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K60" sqref="B51:K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="11" width="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="30" width="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="36" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="Q1" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+    </row>
+    <row r="2" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -990,7 +1020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1058,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1126,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>0</v>
       </c>
@@ -1194,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>0</v>
       </c>
@@ -1262,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>0</v>
       </c>
@@ -1330,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>0</v>
       </c>
@@ -1398,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>0</v>
       </c>
@@ -1466,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>0</v>
       </c>
@@ -1534,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>0</v>
       </c>
@@ -1602,7 +1632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:36" x14ac:dyDescent="0.3">
       <c r="Q12">
         <v>0</v>
       </c>
@@ -1640,7 +1670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>0</v>
       </c>
@@ -1704,7 +1734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1734,7 +1764,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
@@ -1750,7 +1780,7 @@
       </c>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
@@ -3586,7 +3616,4030 @@
         <v>1</v>
       </c>
     </row>
+    <row r="49" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+      <c r="T51">
+        <v>1</v>
+      </c>
+      <c r="U51">
+        <v>1</v>
+      </c>
+      <c r="V51">
+        <v>1</v>
+      </c>
+      <c r="W51">
+        <v>1</v>
+      </c>
+      <c r="X51">
+        <v>1</v>
+      </c>
+      <c r="Y51">
+        <v>1</v>
+      </c>
+      <c r="Z51">
+        <v>1</v>
+      </c>
+      <c r="AA51">
+        <v>1</v>
+      </c>
+      <c r="AB51">
+        <v>1</v>
+      </c>
+      <c r="AC51">
+        <v>1</v>
+      </c>
+      <c r="AD51">
+        <v>1</v>
+      </c>
+      <c r="AE51">
+        <v>1</v>
+      </c>
+      <c r="AF51">
+        <v>1</v>
+      </c>
+      <c r="AG51">
+        <v>1</v>
+      </c>
+      <c r="AH51">
+        <v>1</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
+      </c>
+      <c r="AJ51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>1</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>1</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <v>0</v>
+      </c>
+      <c r="AH53">
+        <v>1</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <v>1</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AJ54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>1</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
+      </c>
+      <c r="AF55">
+        <v>0</v>
+      </c>
+      <c r="AG55">
+        <v>0</v>
+      </c>
+      <c r="AH55">
+        <v>1</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
+      </c>
+      <c r="AJ55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>0</v>
+      </c>
+      <c r="AH56">
+        <v>1</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
+      </c>
+      <c r="AJ56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+      <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
+      </c>
+      <c r="AF57">
+        <v>0</v>
+      </c>
+      <c r="AG57">
+        <v>0</v>
+      </c>
+      <c r="AH57">
+        <v>1</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
+      </c>
+      <c r="AJ57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>1</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
+      </c>
+      <c r="AF58">
+        <v>0</v>
+      </c>
+      <c r="AG58">
+        <v>0</v>
+      </c>
+      <c r="AH58">
+        <v>1</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
+      </c>
+      <c r="AJ58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>1</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
+      <c r="AF59">
+        <v>0</v>
+      </c>
+      <c r="AG59">
+        <v>0</v>
+      </c>
+      <c r="AH59">
+        <v>1</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>1</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+      <c r="AC60">
+        <v>0</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
+      </c>
+      <c r="AF60">
+        <v>0</v>
+      </c>
+      <c r="AG60">
+        <v>0</v>
+      </c>
+      <c r="AH60">
+        <v>1</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
+      </c>
+      <c r="AJ60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>1</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <v>0</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
+      </c>
+      <c r="AF61">
+        <v>0</v>
+      </c>
+      <c r="AG61">
+        <v>0</v>
+      </c>
+      <c r="AH61">
+        <v>1</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
+      </c>
+      <c r="AJ61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>1</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <v>0</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
+      </c>
+      <c r="AF62">
+        <v>0</v>
+      </c>
+      <c r="AG62">
+        <v>0</v>
+      </c>
+      <c r="AH62">
+        <v>1</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
+      </c>
+      <c r="AJ62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+      <c r="AC63">
+        <v>0</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
+      </c>
+      <c r="AF63">
+        <v>0</v>
+      </c>
+      <c r="AG63">
+        <v>0</v>
+      </c>
+      <c r="AH63">
+        <v>1</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
+      </c>
+      <c r="AJ63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>1</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <v>0</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
+      </c>
+      <c r="AF64">
+        <v>0</v>
+      </c>
+      <c r="AG64">
+        <v>0</v>
+      </c>
+      <c r="AH64">
+        <v>1</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
+      </c>
+      <c r="AJ64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>1</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
+      </c>
+      <c r="AF65">
+        <v>0</v>
+      </c>
+      <c r="AG65">
+        <v>0</v>
+      </c>
+      <c r="AH65">
+        <v>1</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
+      </c>
+      <c r="AJ65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>1</v>
+      </c>
+      <c r="T66">
+        <v>1</v>
+      </c>
+      <c r="U66">
+        <v>1</v>
+      </c>
+      <c r="V66">
+        <v>1</v>
+      </c>
+      <c r="W66">
+        <v>1</v>
+      </c>
+      <c r="X66">
+        <v>1</v>
+      </c>
+      <c r="Y66">
+        <v>1</v>
+      </c>
+      <c r="Z66">
+        <v>1</v>
+      </c>
+      <c r="AA66">
+        <v>1</v>
+      </c>
+      <c r="AB66">
+        <v>1</v>
+      </c>
+      <c r="AC66">
+        <v>1</v>
+      </c>
+      <c r="AD66">
+        <v>1</v>
+      </c>
+      <c r="AE66">
+        <v>1</v>
+      </c>
+      <c r="AF66">
+        <v>1</v>
+      </c>
+      <c r="AG66">
+        <v>1</v>
+      </c>
+      <c r="AH66">
+        <v>1</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
+      </c>
+      <c r="AJ66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
+      </c>
+      <c r="AF67">
+        <v>0</v>
+      </c>
+      <c r="AG67">
+        <v>0</v>
+      </c>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
+      </c>
+      <c r="AJ67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+      <c r="AC68">
+        <v>0</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
+      </c>
+      <c r="AF68">
+        <v>0</v>
+      </c>
+      <c r="AG68">
+        <v>0</v>
+      </c>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
+      </c>
+      <c r="AJ68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <v>1</v>
+      </c>
+      <c r="S72">
+        <v>1</v>
+      </c>
+      <c r="T72">
+        <v>1</v>
+      </c>
+      <c r="U72">
+        <v>1</v>
+      </c>
+      <c r="V72">
+        <v>1</v>
+      </c>
+      <c r="W72">
+        <v>1</v>
+      </c>
+      <c r="X72">
+        <v>1</v>
+      </c>
+      <c r="Y72">
+        <v>1</v>
+      </c>
+      <c r="Z72">
+        <v>1</v>
+      </c>
+      <c r="AA72">
+        <v>1</v>
+      </c>
+      <c r="AB72">
+        <v>1</v>
+      </c>
+      <c r="AC72">
+        <v>1</v>
+      </c>
+      <c r="AD72">
+        <v>1</v>
+      </c>
+      <c r="AE72">
+        <v>1</v>
+      </c>
+      <c r="AF72">
+        <v>1</v>
+      </c>
+      <c r="AG72">
+        <v>1</v>
+      </c>
+      <c r="AH72">
+        <v>1</v>
+      </c>
+      <c r="AI72">
+        <v>1</v>
+      </c>
+      <c r="AJ72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q73">
+        <v>1</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+      <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
+      </c>
+      <c r="AF73">
+        <v>0</v>
+      </c>
+      <c r="AG73">
+        <v>0</v>
+      </c>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
+      </c>
+      <c r="AJ73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q74">
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+      <c r="AC74">
+        <v>0</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
+      </c>
+      <c r="AF74">
+        <v>0</v>
+      </c>
+      <c r="AG74">
+        <v>0</v>
+      </c>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
+      </c>
+      <c r="AJ74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q75">
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>0</v>
+      </c>
+      <c r="AG75">
+        <v>0</v>
+      </c>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
+      </c>
+      <c r="AJ75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q76">
+        <v>1</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>0</v>
+      </c>
+      <c r="AG76">
+        <v>0</v>
+      </c>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
+      </c>
+      <c r="AJ76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+      <c r="AC77">
+        <v>0</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
+      </c>
+      <c r="AF77">
+        <v>0</v>
+      </c>
+      <c r="AG77">
+        <v>0</v>
+      </c>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
+      </c>
+      <c r="AJ77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q78">
+        <v>1</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AF78">
+        <v>0</v>
+      </c>
+      <c r="AG78">
+        <v>0</v>
+      </c>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
+      </c>
+      <c r="AJ78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+      <c r="AC79">
+        <v>0</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
+      </c>
+      <c r="AF79">
+        <v>0</v>
+      </c>
+      <c r="AG79">
+        <v>0</v>
+      </c>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
+      </c>
+      <c r="AJ79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>0</v>
+      </c>
+      <c r="AG80">
+        <v>0</v>
+      </c>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
+      </c>
+      <c r="AJ80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
+      </c>
+      <c r="AF81">
+        <v>0</v>
+      </c>
+      <c r="AG81">
+        <v>0</v>
+      </c>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
+      </c>
+      <c r="AJ81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q82">
+        <v>1</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+      <c r="AC82">
+        <v>0</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
+      </c>
+      <c r="AF82">
+        <v>0</v>
+      </c>
+      <c r="AG82">
+        <v>0</v>
+      </c>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
+      </c>
+      <c r="AJ82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q83">
+        <v>1</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
+      <c r="AF83">
+        <v>0</v>
+      </c>
+      <c r="AG83">
+        <v>0</v>
+      </c>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
+      </c>
+      <c r="AJ83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
+      </c>
+      <c r="AF84">
+        <v>0</v>
+      </c>
+      <c r="AG84">
+        <v>0</v>
+      </c>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
+      </c>
+      <c r="AJ84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q85">
+        <v>1</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <v>0</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
+      </c>
+      <c r="AF85">
+        <v>0</v>
+      </c>
+      <c r="AG85">
+        <v>0</v>
+      </c>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
+      </c>
+      <c r="AJ85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q86">
+        <v>1</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <v>0</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
+      </c>
+      <c r="AF86">
+        <v>0</v>
+      </c>
+      <c r="AG86">
+        <v>0</v>
+      </c>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
+      </c>
+      <c r="AJ86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q87">
+        <v>1</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
+      </c>
+      <c r="AF87">
+        <v>0</v>
+      </c>
+      <c r="AG87">
+        <v>0</v>
+      </c>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
+      </c>
+      <c r="AJ87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q88">
+        <v>1</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>0</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88">
+        <v>0</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88">
+        <v>0</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
+      </c>
+      <c r="AF88">
+        <v>0</v>
+      </c>
+      <c r="AG88">
+        <v>0</v>
+      </c>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
+      </c>
+      <c r="AJ88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q89">
+        <v>1</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <v>0</v>
+      </c>
+      <c r="AB89">
+        <v>0</v>
+      </c>
+      <c r="AC89">
+        <v>0</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
+      </c>
+      <c r="AF89">
+        <v>0</v>
+      </c>
+      <c r="AG89">
+        <v>0</v>
+      </c>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
+      </c>
+      <c r="AJ89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q90">
+        <v>1</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <v>0</v>
+      </c>
+      <c r="Y90">
+        <v>0</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+      <c r="AA90">
+        <v>0</v>
+      </c>
+      <c r="AB90">
+        <v>0</v>
+      </c>
+      <c r="AC90">
+        <v>0</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
+      </c>
+      <c r="AF90">
+        <v>0</v>
+      </c>
+      <c r="AG90">
+        <v>0</v>
+      </c>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>0</v>
+      </c>
+      <c r="AJ90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q91">
+        <v>1</v>
+      </c>
+      <c r="R91">
+        <v>1</v>
+      </c>
+      <c r="S91">
+        <v>1</v>
+      </c>
+      <c r="T91">
+        <v>1</v>
+      </c>
+      <c r="U91">
+        <v>1</v>
+      </c>
+      <c r="V91">
+        <v>1</v>
+      </c>
+      <c r="W91">
+        <v>1</v>
+      </c>
+      <c r="X91">
+        <v>1</v>
+      </c>
+      <c r="Y91">
+        <v>1</v>
+      </c>
+      <c r="Z91">
+        <v>1</v>
+      </c>
+      <c r="AA91">
+        <v>1</v>
+      </c>
+      <c r="AB91">
+        <v>1</v>
+      </c>
+      <c r="AC91">
+        <v>1</v>
+      </c>
+      <c r="AD91">
+        <v>1</v>
+      </c>
+      <c r="AE91">
+        <v>1</v>
+      </c>
+      <c r="AF91">
+        <v>1</v>
+      </c>
+      <c r="AG91">
+        <v>1</v>
+      </c>
+      <c r="AH91">
+        <v>1</v>
+      </c>
+      <c r="AI91">
+        <v>1</v>
+      </c>
+      <c r="AJ91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="X95">
+        <v>0</v>
+      </c>
+      <c r="Y95">
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <v>0</v>
+      </c>
+      <c r="AB95">
+        <v>0</v>
+      </c>
+      <c r="AC95">
+        <v>0</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
+      </c>
+      <c r="AF95">
+        <v>0</v>
+      </c>
+      <c r="AG95">
+        <v>0</v>
+      </c>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
+      </c>
+      <c r="AJ95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96">
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+      <c r="AA96">
+        <v>0</v>
+      </c>
+      <c r="AB96">
+        <v>0</v>
+      </c>
+      <c r="AC96">
+        <v>0</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
+      </c>
+      <c r="AF96">
+        <v>0</v>
+      </c>
+      <c r="AG96">
+        <v>0</v>
+      </c>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
+      </c>
+      <c r="AJ96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>1</v>
+      </c>
+      <c r="T97">
+        <v>1</v>
+      </c>
+      <c r="U97">
+        <v>1</v>
+      </c>
+      <c r="V97">
+        <v>1</v>
+      </c>
+      <c r="W97">
+        <v>1</v>
+      </c>
+      <c r="X97">
+        <v>1</v>
+      </c>
+      <c r="Y97">
+        <v>1</v>
+      </c>
+      <c r="Z97">
+        <v>1</v>
+      </c>
+      <c r="AA97">
+        <v>1</v>
+      </c>
+      <c r="AB97">
+        <v>1</v>
+      </c>
+      <c r="AC97">
+        <v>1</v>
+      </c>
+      <c r="AD97">
+        <v>1</v>
+      </c>
+      <c r="AE97">
+        <v>1</v>
+      </c>
+      <c r="AF97">
+        <v>1</v>
+      </c>
+      <c r="AG97">
+        <v>1</v>
+      </c>
+      <c r="AH97">
+        <v>1</v>
+      </c>
+      <c r="AI97">
+        <v>0</v>
+      </c>
+      <c r="AJ97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="X98">
+        <v>0</v>
+      </c>
+      <c r="Y98">
+        <v>0</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98">
+        <v>0</v>
+      </c>
+      <c r="AB98">
+        <v>0</v>
+      </c>
+      <c r="AC98">
+        <v>0</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
+      </c>
+      <c r="AF98">
+        <v>0</v>
+      </c>
+      <c r="AG98">
+        <v>0</v>
+      </c>
+      <c r="AH98">
+        <v>1</v>
+      </c>
+      <c r="AI98">
+        <v>0</v>
+      </c>
+      <c r="AJ98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="X99">
+        <v>0</v>
+      </c>
+      <c r="Y99">
+        <v>0</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99">
+        <v>0</v>
+      </c>
+      <c r="AB99">
+        <v>0</v>
+      </c>
+      <c r="AC99">
+        <v>0</v>
+      </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
+      <c r="AE99">
+        <v>0</v>
+      </c>
+      <c r="AF99">
+        <v>0</v>
+      </c>
+      <c r="AG99">
+        <v>0</v>
+      </c>
+      <c r="AH99">
+        <v>1</v>
+      </c>
+      <c r="AI99">
+        <v>0</v>
+      </c>
+      <c r="AJ99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>0</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>0</v>
+      </c>
+      <c r="X100">
+        <v>0</v>
+      </c>
+      <c r="Y100">
+        <v>0</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+      <c r="AA100">
+        <v>0</v>
+      </c>
+      <c r="AB100">
+        <v>0</v>
+      </c>
+      <c r="AC100">
+        <v>0</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>0</v>
+      </c>
+      <c r="AF100">
+        <v>0</v>
+      </c>
+      <c r="AG100">
+        <v>0</v>
+      </c>
+      <c r="AH100">
+        <v>1</v>
+      </c>
+      <c r="AI100">
+        <v>0</v>
+      </c>
+      <c r="AJ100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <v>0</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>0</v>
+      </c>
+      <c r="X101">
+        <v>0</v>
+      </c>
+      <c r="Y101">
+        <v>0</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
+      </c>
+      <c r="AA101">
+        <v>0</v>
+      </c>
+      <c r="AB101">
+        <v>0</v>
+      </c>
+      <c r="AC101">
+        <v>0</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
+      </c>
+      <c r="AF101">
+        <v>0</v>
+      </c>
+      <c r="AG101">
+        <v>0</v>
+      </c>
+      <c r="AH101">
+        <v>1</v>
+      </c>
+      <c r="AI101">
+        <v>0</v>
+      </c>
+      <c r="AJ101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <v>0</v>
+      </c>
+      <c r="S102">
+        <v>1</v>
+      </c>
+      <c r="T102">
+        <v>1</v>
+      </c>
+      <c r="U102">
+        <v>1</v>
+      </c>
+      <c r="V102">
+        <v>1</v>
+      </c>
+      <c r="W102">
+        <v>1</v>
+      </c>
+      <c r="X102">
+        <v>1</v>
+      </c>
+      <c r="Y102">
+        <v>1</v>
+      </c>
+      <c r="Z102">
+        <v>1</v>
+      </c>
+      <c r="AA102">
+        <v>1</v>
+      </c>
+      <c r="AB102">
+        <v>1</v>
+      </c>
+      <c r="AC102">
+        <v>1</v>
+      </c>
+      <c r="AD102">
+        <v>1</v>
+      </c>
+      <c r="AE102">
+        <v>1</v>
+      </c>
+      <c r="AF102">
+        <v>1</v>
+      </c>
+      <c r="AG102">
+        <v>1</v>
+      </c>
+      <c r="AH102">
+        <v>1</v>
+      </c>
+      <c r="AI102">
+        <v>0</v>
+      </c>
+      <c r="AJ102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <v>1</v>
+      </c>
+      <c r="T103">
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <v>0</v>
+      </c>
+      <c r="V103">
+        <v>0</v>
+      </c>
+      <c r="W103">
+        <v>0</v>
+      </c>
+      <c r="X103">
+        <v>0</v>
+      </c>
+      <c r="Y103">
+        <v>0</v>
+      </c>
+      <c r="Z103">
+        <v>0</v>
+      </c>
+      <c r="AA103">
+        <v>0</v>
+      </c>
+      <c r="AB103">
+        <v>0</v>
+      </c>
+      <c r="AC103">
+        <v>0</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
+      </c>
+      <c r="AF103">
+        <v>0</v>
+      </c>
+      <c r="AG103">
+        <v>0</v>
+      </c>
+      <c r="AH103">
+        <v>0</v>
+      </c>
+      <c r="AI103">
+        <v>0</v>
+      </c>
+      <c r="AJ103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>0</v>
+      </c>
+      <c r="S104">
+        <v>1</v>
+      </c>
+      <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>0</v>
+      </c>
+      <c r="V104">
+        <v>0</v>
+      </c>
+      <c r="W104">
+        <v>0</v>
+      </c>
+      <c r="X104">
+        <v>0</v>
+      </c>
+      <c r="Y104">
+        <v>0</v>
+      </c>
+      <c r="Z104">
+        <v>0</v>
+      </c>
+      <c r="AA104">
+        <v>0</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+      <c r="AC104">
+        <v>0</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>0</v>
+      </c>
+      <c r="AF104">
+        <v>0</v>
+      </c>
+      <c r="AG104">
+        <v>0</v>
+      </c>
+      <c r="AH104">
+        <v>0</v>
+      </c>
+      <c r="AI104">
+        <v>0</v>
+      </c>
+      <c r="AJ104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <v>1</v>
+      </c>
+      <c r="T105">
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <v>0</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
+        <v>0</v>
+      </c>
+      <c r="X105">
+        <v>0</v>
+      </c>
+      <c r="Y105">
+        <v>0</v>
+      </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
+      <c r="AA105">
+        <v>0</v>
+      </c>
+      <c r="AB105">
+        <v>0</v>
+      </c>
+      <c r="AC105">
+        <v>0</v>
+      </c>
+      <c r="AD105">
+        <v>0</v>
+      </c>
+      <c r="AE105">
+        <v>0</v>
+      </c>
+      <c r="AF105">
+        <v>0</v>
+      </c>
+      <c r="AG105">
+        <v>0</v>
+      </c>
+      <c r="AH105">
+        <v>0</v>
+      </c>
+      <c r="AI105">
+        <v>0</v>
+      </c>
+      <c r="AJ105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <v>0</v>
+      </c>
+      <c r="S106">
+        <v>1</v>
+      </c>
+      <c r="T106">
+        <v>0</v>
+      </c>
+      <c r="U106">
+        <v>0</v>
+      </c>
+      <c r="V106">
+        <v>0</v>
+      </c>
+      <c r="W106">
+        <v>0</v>
+      </c>
+      <c r="X106">
+        <v>0</v>
+      </c>
+      <c r="Y106">
+        <v>0</v>
+      </c>
+      <c r="Z106">
+        <v>0</v>
+      </c>
+      <c r="AA106">
+        <v>0</v>
+      </c>
+      <c r="AB106">
+        <v>0</v>
+      </c>
+      <c r="AC106">
+        <v>0</v>
+      </c>
+      <c r="AD106">
+        <v>0</v>
+      </c>
+      <c r="AE106">
+        <v>0</v>
+      </c>
+      <c r="AF106">
+        <v>0</v>
+      </c>
+      <c r="AG106">
+        <v>0</v>
+      </c>
+      <c r="AH106">
+        <v>0</v>
+      </c>
+      <c r="AI106">
+        <v>0</v>
+      </c>
+      <c r="AJ106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>0</v>
+      </c>
+      <c r="S107">
+        <v>1</v>
+      </c>
+      <c r="T107">
+        <v>1</v>
+      </c>
+      <c r="U107">
+        <v>1</v>
+      </c>
+      <c r="V107">
+        <v>1</v>
+      </c>
+      <c r="W107">
+        <v>1</v>
+      </c>
+      <c r="X107">
+        <v>1</v>
+      </c>
+      <c r="Y107">
+        <v>1</v>
+      </c>
+      <c r="Z107">
+        <v>1</v>
+      </c>
+      <c r="AA107">
+        <v>1</v>
+      </c>
+      <c r="AB107">
+        <v>1</v>
+      </c>
+      <c r="AC107">
+        <v>1</v>
+      </c>
+      <c r="AD107">
+        <v>1</v>
+      </c>
+      <c r="AE107">
+        <v>1</v>
+      </c>
+      <c r="AF107">
+        <v>1</v>
+      </c>
+      <c r="AG107">
+        <v>1</v>
+      </c>
+      <c r="AH107">
+        <v>1</v>
+      </c>
+      <c r="AI107">
+        <v>0</v>
+      </c>
+      <c r="AJ107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <v>0</v>
+      </c>
+      <c r="S108">
+        <v>0</v>
+      </c>
+      <c r="T108">
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <v>0</v>
+      </c>
+      <c r="V108">
+        <v>0</v>
+      </c>
+      <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108">
+        <v>0</v>
+      </c>
+      <c r="Y108">
+        <v>0</v>
+      </c>
+      <c r="Z108">
+        <v>0</v>
+      </c>
+      <c r="AA108">
+        <v>0</v>
+      </c>
+      <c r="AB108">
+        <v>0</v>
+      </c>
+      <c r="AC108">
+        <v>0</v>
+      </c>
+      <c r="AD108">
+        <v>0</v>
+      </c>
+      <c r="AE108">
+        <v>0</v>
+      </c>
+      <c r="AF108">
+        <v>0</v>
+      </c>
+      <c r="AG108">
+        <v>0</v>
+      </c>
+      <c r="AH108">
+        <v>1</v>
+      </c>
+      <c r="AI108">
+        <v>0</v>
+      </c>
+      <c r="AJ108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>0</v>
+      </c>
+      <c r="S109">
+        <v>0</v>
+      </c>
+      <c r="T109">
+        <v>0</v>
+      </c>
+      <c r="U109">
+        <v>0</v>
+      </c>
+      <c r="V109">
+        <v>0</v>
+      </c>
+      <c r="W109">
+        <v>0</v>
+      </c>
+      <c r="X109">
+        <v>0</v>
+      </c>
+      <c r="Y109">
+        <v>0</v>
+      </c>
+      <c r="Z109">
+        <v>0</v>
+      </c>
+      <c r="AA109">
+        <v>0</v>
+      </c>
+      <c r="AB109">
+        <v>0</v>
+      </c>
+      <c r="AC109">
+        <v>0</v>
+      </c>
+      <c r="AD109">
+        <v>0</v>
+      </c>
+      <c r="AE109">
+        <v>0</v>
+      </c>
+      <c r="AF109">
+        <v>0</v>
+      </c>
+      <c r="AG109">
+        <v>0</v>
+      </c>
+      <c r="AH109">
+        <v>1</v>
+      </c>
+      <c r="AI109">
+        <v>0</v>
+      </c>
+      <c r="AJ109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>0</v>
+      </c>
+      <c r="S110">
+        <v>0</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>0</v>
+      </c>
+      <c r="V110">
+        <v>0</v>
+      </c>
+      <c r="W110">
+        <v>0</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="Y110">
+        <v>0</v>
+      </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+      <c r="AA110">
+        <v>0</v>
+      </c>
+      <c r="AB110">
+        <v>0</v>
+      </c>
+      <c r="AC110">
+        <v>0</v>
+      </c>
+      <c r="AD110">
+        <v>0</v>
+      </c>
+      <c r="AE110">
+        <v>0</v>
+      </c>
+      <c r="AF110">
+        <v>0</v>
+      </c>
+      <c r="AG110">
+        <v>0</v>
+      </c>
+      <c r="AH110">
+        <v>1</v>
+      </c>
+      <c r="AI110">
+        <v>0</v>
+      </c>
+      <c r="AJ110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <v>0</v>
+      </c>
+      <c r="S111">
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <v>0</v>
+      </c>
+      <c r="U111">
+        <v>0</v>
+      </c>
+      <c r="V111">
+        <v>0</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="X111">
+        <v>0</v>
+      </c>
+      <c r="Y111">
+        <v>0</v>
+      </c>
+      <c r="Z111">
+        <v>0</v>
+      </c>
+      <c r="AA111">
+        <v>0</v>
+      </c>
+      <c r="AB111">
+        <v>0</v>
+      </c>
+      <c r="AC111">
+        <v>0</v>
+      </c>
+      <c r="AD111">
+        <v>0</v>
+      </c>
+      <c r="AE111">
+        <v>0</v>
+      </c>
+      <c r="AF111">
+        <v>0</v>
+      </c>
+      <c r="AG111">
+        <v>0</v>
+      </c>
+      <c r="AH111">
+        <v>1</v>
+      </c>
+      <c r="AI111">
+        <v>0</v>
+      </c>
+      <c r="AJ111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>0</v>
+      </c>
+      <c r="S112">
+        <v>1</v>
+      </c>
+      <c r="T112">
+        <v>1</v>
+      </c>
+      <c r="U112">
+        <v>1</v>
+      </c>
+      <c r="V112">
+        <v>1</v>
+      </c>
+      <c r="W112">
+        <v>1</v>
+      </c>
+      <c r="X112">
+        <v>1</v>
+      </c>
+      <c r="Y112">
+        <v>1</v>
+      </c>
+      <c r="Z112">
+        <v>1</v>
+      </c>
+      <c r="AA112">
+        <v>1</v>
+      </c>
+      <c r="AB112">
+        <v>1</v>
+      </c>
+      <c r="AC112">
+        <v>1</v>
+      </c>
+      <c r="AD112">
+        <v>1</v>
+      </c>
+      <c r="AE112">
+        <v>1</v>
+      </c>
+      <c r="AF112">
+        <v>1</v>
+      </c>
+      <c r="AG112">
+        <v>1</v>
+      </c>
+      <c r="AH112">
+        <v>1</v>
+      </c>
+      <c r="AI112">
+        <v>0</v>
+      </c>
+      <c r="AJ112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>0</v>
+      </c>
+      <c r="S113">
+        <v>0</v>
+      </c>
+      <c r="T113">
+        <v>0</v>
+      </c>
+      <c r="U113">
+        <v>0</v>
+      </c>
+      <c r="V113">
+        <v>0</v>
+      </c>
+      <c r="W113">
+        <v>0</v>
+      </c>
+      <c r="X113">
+        <v>0</v>
+      </c>
+      <c r="Y113">
+        <v>0</v>
+      </c>
+      <c r="Z113">
+        <v>0</v>
+      </c>
+      <c r="AA113">
+        <v>0</v>
+      </c>
+      <c r="AB113">
+        <v>0</v>
+      </c>
+      <c r="AC113">
+        <v>0</v>
+      </c>
+      <c r="AD113">
+        <v>0</v>
+      </c>
+      <c r="AE113">
+        <v>0</v>
+      </c>
+      <c r="AF113">
+        <v>0</v>
+      </c>
+      <c r="AG113">
+        <v>0</v>
+      </c>
+      <c r="AH113">
+        <v>0</v>
+      </c>
+      <c r="AI113">
+        <v>0</v>
+      </c>
+      <c r="AJ113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="17:36" x14ac:dyDescent="0.3">
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>0</v>
+      </c>
+      <c r="S114">
+        <v>0</v>
+      </c>
+      <c r="T114">
+        <v>0</v>
+      </c>
+      <c r="U114">
+        <v>0</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>0</v>
+      </c>
+      <c r="Y114">
+        <v>0</v>
+      </c>
+      <c r="Z114">
+        <v>0</v>
+      </c>
+      <c r="AA114">
+        <v>0</v>
+      </c>
+      <c r="AB114">
+        <v>0</v>
+      </c>
+      <c r="AC114">
+        <v>0</v>
+      </c>
+      <c r="AD114">
+        <v>0</v>
+      </c>
+      <c r="AE114">
+        <v>0</v>
+      </c>
+      <c r="AF114">
+        <v>0</v>
+      </c>
+      <c r="AG114">
+        <v>0</v>
+      </c>
+      <c r="AH114">
+        <v>0</v>
+      </c>
+      <c r="AI114">
+        <v>0</v>
+      </c>
+      <c r="AJ114">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="Q1:AJ1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3932,8 +7985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDCB9C8-F043-4C72-9289-F6160CDB87A3}">
   <dimension ref="B1:P145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130:O143"/>
+    <sheetView topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H118" sqref="H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
